--- a/DataCommodities.xlsx
+++ b/DataCommodities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,67 +566,67 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69,54</t>
+          <t>67,46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70,05</t>
+          <t>68,31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69,42</t>
+          <t>67,44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:47:08</t>
+          <t>11:29:44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-40,43%</t>
+          <t>-44,13%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -687,67 +687,67 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.646,50</t>
+          <t>2.647,50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.657,00</t>
+          <t>2.695,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.612,00</t>
+          <t>2.641,00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+24,50</t>
+          <t>-43,50</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+0,93%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10:47:37</t>
+          <t>11:29:41</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>+0,93%</t>
+          <t>-1,80%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>+3,18%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>+4,22%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>+11,05%</t>
+          <t>+3,53%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>+15,74%</t>
+          <t>+22,35%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>+3,56%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14,765</t>
+          <t>14,850</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14,785</t>
+          <t>14,850</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,62 +818,62 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+0,040</t>
+          <t>+0,050</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>+0,27%</t>
+          <t>+0,30%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>20/01</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>+0,27%</t>
+          <t>+0,20%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>+2,06%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>+4,84%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>+5,21%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>-16,87%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>+8,97%</t>
+          <t>-1,40%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Venda</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -919,67 +919,67 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>393,10</t>
+          <t>361,50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>394,80</t>
+          <t>361,50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>389,50</t>
+          <t>361,50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+2,80</t>
+          <t>-1,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>+0,72%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:03:39</t>
+          <t>10:44:59</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>+0,72%</t>
+          <t>+2,43%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>+2,37%</t>
+          <t>+5,07%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>+1,25%</t>
+          <t>+5,96%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>+1,91%</t>
+          <t>+12,62%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>+6,75%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>-40,26%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1039,62 +1039,62 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21,79</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21,91</t>
+          <t>18,25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21,68</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10:47:38</t>
+          <t>11:30:01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-2,52%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-5,30%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>+5,88%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>+9,28%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1154,77 +1154,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Fev 25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>185,08</t>
+          <t>196,75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>186,05</t>
+          <t>197,88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>184,58</t>
+          <t>195,88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>18/01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>+2,84%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>+6,57%</t>
+          <t>+1,50%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>+2,07%</t>
+          <t>+13,22%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>+40,42%</t>
+          <t>+42,64%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1270,87 +1270,87 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.291,00</t>
+          <t>11.559,50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.413,00</t>
+          <t>11.680,50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.159,00</t>
+          <t>11.347,50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-37,00</t>
+          <t>+386,50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0,50%</t>
+          <t>+3,46%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:47:32</t>
+          <t>11:29:10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>+3,05%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>+0,56%</t>
+          <t>+5,85%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>+3,54%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>+74,09%</t>
+          <t>+0,20%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>+86,64%</t>
+          <t>+156,61%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>+204,76%</t>
+          <t>+340,02%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1390,67 +1390,67 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>249,35</t>
+          <t>334,65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>249,80</t>
+          <t>336,20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>246,05</t>
+          <t>328,75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+3,40</t>
+          <t>+6,30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>+1,38%</t>
+          <t>+1,92%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:46:45</t>
+          <t>11:29:39</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>+1,28%</t>
+          <t>+1,92%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>+0,52%</t>
+          <t>+3,96%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>+2,98%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>+32,45%</t>
+          <t>+4,68%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>+43,58%</t>
+          <t>+74,10%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>+20,83%</t>
+          <t>+40,69%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1510,82 +1510,82 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.359,00</t>
+          <t>5.302,00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.392,00</t>
+          <t>5.313,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.313,00</t>
+          <t>5.120,00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+40,00</t>
+          <t>+303,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>+0,93%</t>
+          <t>+6,06%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10:47:21</t>
+          <t>11:29:06</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>+0,83%</t>
+          <t>+6,00%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>+8,92%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>+5,90%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>+43,01%</t>
+          <t>+8,66%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>+67,80%</t>
+          <t>+64,50%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>+99,72%</t>
+          <t>+139,36%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1631,67 +1631,67 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.770,50</t>
+          <t>9.236,50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.785,50</t>
+          <t>9.289,50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.666,50</t>
+          <t>9.161,00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>+88,50</t>
+          <t>-31,50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>+0,91%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:47:44</t>
+          <t>11:29:24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>+0,91%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>+2,33%</t>
+          <t>+0,87%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>+3,28%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>+14,24%</t>
+          <t>+5,31%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>+18,69%</t>
+          <t>+10,65%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>+2,73%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1738,72 +1738,72 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4,4850</t>
+          <t>4,3148</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4,4917</t>
+          <t>4,3332</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4,4205</t>
+          <t>4,2702</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>+0,0535</t>
+          <t>-0,0537</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>+1,21%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10:47:00</t>
+          <t>11:29:27</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>+1,12%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>+3,50%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>+5,64%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>+15,35%</t>
+          <t>+7,02%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>+20,17%</t>
+          <t>+14,49%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>+3,51%</t>
+          <t>-4,75%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1858,82 +1858,82 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>298,90</t>
+          <t>302,80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>300,20</t>
+          <t>303,35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>297,35</t>
+          <t>299,75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0,70</t>
+          <t>+5,60</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>+1,88%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10:45:01</t>
+          <t>11:24:55</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>+2,67%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>+2,09%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>+0,81%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-22,56%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-30,55%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-22,30%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Venda Forte</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1978,82 +1978,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2,0425</t>
+          <t>2,0949</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2,0450</t>
+          <t>2,1204</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2,0173</t>
+          <t>2,0789</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+0,0233</t>
+          <t>-0,0491</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>+1,15%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:47:44</t>
+          <t>11:29:46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>+1,08%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>+4,61%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>+7,30%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>+3,13%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2098,72 +2098,72 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Fev 25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>691,25</t>
+          <t>732,88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>693,50</t>
+          <t>753,38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>683,75</t>
+          <t>727,88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+4,25</t>
+          <t>-13,99</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>+0,62%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10:47:20</t>
+          <t>11:29:12</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>+0,62%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>+8,70%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>+8,42%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>+5,30%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-18,90%</t>
+          <t>-8,40%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2218,79 +2218,79 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Fev 25</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,771</t>
+          <t>3,817</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2,817</t>
+          <t>3,915</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2,744</t>
+          <t>3,777</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0,010</t>
+          <t>-0,131</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:47:06</t>
+          <t>11:30:13</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>+18,24%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>+12,25%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>+19,21%</t>
+          <t>+5,42%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-22,17%</t>
+          <t>+80,24%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-50,69%</t>
+          <t>+1,27%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>Venda Forte</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>Compra Forte</t>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2338,67 +2338,67 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>565,00</t>
+          <t>595,00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>565,50</t>
+          <t>604,50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>557,50</t>
+          <t>589,00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>+7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>+1,25%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>18/01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>+1,25%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>+4,05%</t>
+          <t>+8,08%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>+7,72%</t>
+          <t>+4,57%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>+3,86%</t>
+          <t>+8,08%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>+8,45%</t>
+          <t>+7,89%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-47,98%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2454,72 +2454,72 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>417,88</t>
+          <t>488,00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>417,90</t>
+          <t>489,90</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>415,25</t>
+          <t>485,60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+1,88</t>
+          <t>+4,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>+0,45%</t>
+          <t>+0,83%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10:44:55</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>+0,45%</t>
+          <t>+0,74%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>+1,00%</t>
+          <t>+2,77%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>+9,27%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>+6,35%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-12,44%</t>
+          <t>+9,39%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2529,12 +2529,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2574,87 +2574,87 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>246,35</t>
+          <t>268,31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>247,08</t>
+          <t>268,48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>245,53</t>
+          <t>268,07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+3,15</t>
+          <t>+0,58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>+1,30%</t>
+          <t>+0,22%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>11:30:14</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>+1,30%</t>
+          <t>+0,45%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-0,10%</t>
+          <t>+0,21%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>+5,06%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>+10,42%</t>
+          <t>+2,20%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>+4,20%</t>
+          <t>+16,21%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>+55,06%</t>
+          <t>+67,69%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2689,68 +2689,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Níquel</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Ouro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fev 25</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16.254,50</t>
+          <t>2.742,91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16.324,00</t>
+          <t>2.746,72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16.132,00</t>
+          <t>2.722,99</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+134,00</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>+0,83%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10:47:42</t>
+          <t>11:30:08</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>+0,83%</t>
+          <t>-0,10%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>+2,35%</t>
+          <t>+2,30%</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>+4,23%</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>+3,90%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-11,73%</t>
+          <t>+35,69%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-16,22%</t>
+          <t>+49,79%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2760,38 +2764,42 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NICKEL</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>6 toneladas</t>
+          <t>100 onças troy</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>FGHJKMNQUVXZ</t>
+          <t>GJMQVZ</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1 = $6</t>
+          <t>1 = $100</t>
         </is>
       </c>
     </row>
@@ -2801,102 +2809,102 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ouro</t>
+          <t>Paládio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.753,65</t>
+          <t>951,75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.754,10</t>
+          <t>960,50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.733,45</t>
+          <t>937,50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+7,45</t>
+          <t>-15,35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>+0,27%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10:46:58</t>
+          <t>11:30:01</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>+0,27%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>+0,55%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>+3,22%</t>
+          <t>+3,68%</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>+32,30%</t>
+          <t>+4,69%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>+37,73%</t>
+          <t>+1,28%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>+51,46%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>GC</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>NYMEX</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2906,7 +2914,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>GJMQVZ</t>
+          <t>HMUZ</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -2921,117 +2929,117 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Paládio</t>
+          <t>Petróleo Brent</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.091,28</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.094,78</t>
+          <t>80,47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.072,75</t>
+          <t>78,45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+19,88</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>+1,86%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10:47:44</t>
+          <t>11:29:43</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>+1,86%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>+9,32%</t>
+          <t>+8,29%</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-1,60%</t>
+          <t>+5,83%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-46,20%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>Venda Forte</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Neutro</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Compra</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Venda</t>
-        </is>
-      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>LCO</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>NYMEX</t>
+          <t>ICE</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>100 onças troy</t>
+          <t>1.000 barris</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>HMUZ</t>
+          <t>FGHJKMNQUVXZ</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1 = $100</t>
+          <t>1 = $1000</t>
         </is>
       </c>
     </row>
@@ -3041,77 +3049,77 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Petróleo Brent</t>
+          <t>Petróleo WTI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>75,43</t>
+          <t>75,64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75,65</t>
+          <t>77,19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>73,88</t>
+          <t>75,06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+0,35</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+0,47%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10:47:20</t>
+          <t>11:29:37</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>+0,51%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>+6,10%</t>
+          <t>-1,00%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>+9,55%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>+6,12%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-11,00%</t>
+          <t>+1,14%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>-10,14%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3121,17 +3129,17 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>LCO</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3161,72 +3169,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Petróleo WTI</t>
+          <t>Platina</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Abr 25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>71,83</t>
+          <t>965,30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>72,08</t>
+          <t>966,50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>71,31</t>
+          <t>946,75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+0,36</t>
+          <t>-0,20</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+0,50%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10:47:08</t>
+          <t>11:29:42</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>+0,50%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>+6,98%</t>
+          <t>+1,88%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>+2,76%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>+0,08%</t>
+          <t>+6,23%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>+7,12%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3236,7 +3244,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3251,27 +3259,27 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>NYMEX</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.000 barris</t>
+          <t>50 onças troy</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>FGHJKMNQUVXZ</t>
+          <t>FJNV</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1 = $1000</t>
+          <t>1 = $50</t>
         </is>
       </c>
     </row>
@@ -3281,117 +3289,113 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Platina</t>
+          <t>Porco Magro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Fev 25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.009,60</t>
+          <t>81,13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.011,75</t>
+          <t>82,30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>986,80</t>
+          <t>80,85</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+19,10</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+1,93%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10:47:28</t>
+          <t>18/01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>+1,98%</t>
+          <t>0,00%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>+0,95%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>+0,20%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>+9,37%</t>
+          <t>+14,39%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>NYMEX</t>
-        </is>
-      </c>
+          <t>LHc1</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>50 onças troy</t>
+          <t>40.000 lb</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>FJNV</t>
+          <t>GJKMNQVZ</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>1 = $50</t>
+          <t>1 = $400</t>
         </is>
       </c>
     </row>
@@ -3401,77 +3405,77 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Porco Magro</t>
+          <t>Prata</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>83,23</t>
+          <t>31,305</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>84,83</t>
+          <t>31,512</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>82,85</t>
+          <t>30,965</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>+0,164</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>+0,53%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>11:29:28</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>+0,57%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>+0,49%</t>
+          <t>+3,17%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>+4,94%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>+22,44%</t>
+          <t>+7,08%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>+14,96%</t>
+          <t>+40,44%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>+8,73%</t>
+          <t>+28,75%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3486,28 +3490,32 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>LHc1</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>40.000 lb</t>
+          <t>5.000 onças troy</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>GJKMNQVZ</t>
+          <t>FHKUNZ</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>1 = $400</t>
+          <t>1 = $5000</t>
         </is>
       </c>
     </row>
@@ -3517,72 +3525,72 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Prata</t>
+          <t>Soja Chicago</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>32,947</t>
+          <t>1.055,50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>32,953</t>
+          <t>1.055,50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32,375</t>
+          <t>1.055,38</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+0,338</t>
+          <t>+21,50</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>+1,04%</t>
+          <t>+2,08%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10:46:53</t>
+          <t>11:05:10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>+0,93%</t>
+          <t>+2,22%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>+1,27%</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>+1,72%</t>
+          <t>+7,86%</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>+36,80%</t>
+          <t>+4,53%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>+41,08%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>+36,29%</t>
+          <t>-25,77%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3592,22 +3600,22 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -3617,17 +3625,17 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>5.000 onças troy</t>
+          <t>5.000 bushels</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>FHKUNZ</t>
+          <t>FHKNQUX</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>1 = $5000</t>
+          <t>1 = $50</t>
         </is>
       </c>
     </row>
@@ -3637,72 +3645,72 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Soja Chicago</t>
+          <t>Suco de Laranja NY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.002,12</t>
+          <t>484,60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.002,75</t>
+          <t>489,68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>996,25</t>
+          <t>484,20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+5,12</t>
+          <t>+19,55</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>+0,51%</t>
+          <t>+4,20%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10:44:50</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>+0,51%</t>
+          <t>+4,32%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>+2,36%</t>
+          <t>+1,07%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>+57,43%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>+209,11%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3712,22 +3720,22 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>Venda Forte</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Venda Forte</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>OJ</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -3737,17 +3745,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>5.000 bushels</t>
+          <t>15.000 lb</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>FHKNQUX</t>
+          <t>FHKNUX</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>1 = $50</t>
+          <t>1 = $150</t>
         </is>
       </c>
     </row>
@@ -3757,97 +3765,97 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Suco de Laranja NY</t>
+          <t>Trigo Chicago</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>471,28</t>
+          <t>548,50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>529,00</t>
+          <t>550,40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>466,97</t>
+          <t>543,25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-17,12</t>
+          <t>+9,50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>+1,76%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:47:17</t>
+          <t>11:29:09</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>+2,43%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>+1,22%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>+2,64%</t>
+          <t>+3,73%</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>+50,79%</t>
+          <t>+0,25%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>+31,18%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>+298,04%</t>
+          <t>-29,12%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Venda</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
           <t>Venda Forte</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Venda Forte</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>OJ</t>
+          <t>ZW</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3857,17 +3865,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>15.000 lb</t>
+          <t>5.000 bushels</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>FHKNUX</t>
+          <t>HKNUZ</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>1 = $150</t>
+          <t>1 = $50</t>
         </is>
       </c>
     </row>
@@ -3877,72 +3885,68 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Trigo Chicago</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Dez 24</t>
-        </is>
-      </c>
+          <t>XAU/Dólar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>573,62</t>
+          <t>2.731,06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>573,90</t>
+          <t>2.732,71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>567,00</t>
+          <t>2.702,87</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+5,62</t>
+          <t>+22,75</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>+0,99%</t>
+          <t>+0,84%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:44:51</t>
+          <t>11:30:05</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>+0,99%</t>
+          <t>+0,89%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>+0,55%</t>
+          <t>+1,99%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>+4,19%</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>+4,07%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>+35,11%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-25,16%</t>
+          <t>+48,94%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3952,44 +3956,24 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Compra Forte</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Venda Forte</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>ZW</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>ICE</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>5.000 bushels</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>HKNUZ</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>1 = $50</t>
-        </is>
-      </c>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3997,83 +3981,83 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>XAU/Dólar</t>
+          <t>Zinco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.744,68</t>
+          <t>2.931,00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.745,01</t>
+          <t>2.965,50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.724,78</t>
+          <t>2.911,00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+8,00</t>
+          <t>-29,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>+0,29%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:47:06</t>
+          <t>11:28:18</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>+0,29%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-1,10%</t>
+          <t>+2,52%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>+3,48%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>+33,07%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>+38,78%</t>
+          <t>+19,46%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>+51,08%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4081,11 +4065,27 @@
           <t>Compra Forte</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>25 metric tons</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>FGHJKMNQUVXZ</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>1 = $ 25</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4093,99 +4093,107 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zinco</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Óleo de Aquecimento</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mar 25</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.074,50</t>
+          <t>2,5366</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.090,00</t>
+          <t>2,6282</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.024,00</t>
+          <t>2,5162</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>+36,50</t>
+          <t>-0,0250</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>+1,20%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:47:44</t>
+          <t>11:29:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>+1,20%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>+1,34%</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-3,18%</t>
+          <t>+13,23%</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>+15,69%</t>
+          <t>+9,32%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>+19,51%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>MZN</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
+          <t>NYF</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>25 metric tons</t>
+          <t>42.000 galões</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -4195,7 +4203,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>1 = $ 25</t>
+          <t>1 = $42000</t>
         </is>
       </c>
     </row>
@@ -4205,77 +4213,77 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Óleo de Aquecimento</t>
+          <t>Óleo de Soja Chicago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dez 24</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2,3001</t>
+          <t>45,65</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2,3059</t>
+          <t>45,65</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2,2771</t>
+          <t>45,65</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+0,0160</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>+0,70%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10:47:44</t>
+          <t>11:24:22</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>+0,65%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>+7,77%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>+14,22%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>+12,86%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-27,78%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Compra Forte</t>
+          <t>Venda Forte</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -4285,17 +4293,17 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
+          <t>Compra Forte</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>Neutro</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Venda Forte</t>
-        </is>
-      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>NYF</t>
+          <t>ZL</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -4305,135 +4313,15 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>42.000 galões</t>
+          <t>60.000 lb</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>FGHJKMNQUVXZ</t>
+          <t>FHKNQUVZ</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
-        <is>
-          <t>1 = $42000</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Óleo de Soja Chicago</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Dez 24</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>45,62</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>45,93</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>45,24</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>+0,06</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>+0,13%</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>10:44:50</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>+0,13%</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>+6,59%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>+3,75%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>-5,31%</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-22,24%</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Compra Forte</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Venda</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>ZL</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>ICE</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>60.000 lb</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>FHKNQUVZ</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
         <is>
           <t>1 = $600</t>
         </is>
